--- a/Gra Pstryk! (boardgamearena.com)/Lista kontrolna dla testu użyteczności.xlsx
+++ b/Gra Pstryk! (boardgamearena.com)/Lista kontrolna dla testu użyteczności.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f3cbb08f5a0672/Dokumenty/Kornelia/Tester - Kornelia/Gra pstryk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repozytoria\portfolio\Gra Pstryk! (boardgamearena.com)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="859" documentId="8_{BC60E0CC-0BC1-48F2-B21F-F95429234325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E75759-B2FB-4437-B396-80B8EAADF086}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202B4159-9D56-497B-ADBC-440D06E0B28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C2DE5C4-479E-4261-832C-2291BF4A73AC}"/>
   </bookViews>
